--- a/fungi/marine_fungi/marine_fungi_data.xlsx
+++ b/fungi/marine_fungi/marine_fungi_data.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Wang" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Gutiérrez" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Bacteria biomass" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pernice" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Bochdansky" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -91,6 +93,48 @@
   </si>
   <si>
     <t xml:space="preserve">Unitless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken from Table 1 in Pernice et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min depth [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max depth [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbial eukaryotes biomass density [pg C mL^-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prokaryote biomass density [pg C mL^-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prokaryote SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken from Table 1 in Bochdansky et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min biomass ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max biomass ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newell and Statzell-Tallman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menden-Deuer and Lessard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">van Veen and Paul</t>
   </si>
 </sst>
 </file>
@@ -188,7 +232,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,6 +247,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -230,7 +278,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -240,9 +288,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -614,7 +659,6 @@
       <c r="D23" s="1" t="n">
         <v>0.00239370078740157</v>
       </c>
-      <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -784,259 +828,261 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>20.9574468085106</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>15.1063829787234</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>2.34042553191489</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>22.8723404255319</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.319148936170212</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>18.7234042553192</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>14.8936170212766</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>14.3617021276596</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.21276595744681</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>12.9787234042553</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>3.82978723404255</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>17.7659574468085</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>14.6808510638298</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>31.4893617021277</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>19.468085106383</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>11.063829787234</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="C12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>44.0425531914894</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>10.1063829787234</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>12.0212765957447</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.957446808510642</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>22.1276595744681</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>11.063829787234</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>10.8510638297872</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>5.31914893617022</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>28.4042553191489</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>40.2127659574468</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>14.6808510638298</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>1.17021276595745</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>23.4042553191489</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>12.7659574468085</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.744680851063832</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>12.7659574468085</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.638297872340424</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>39.5744680851064</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>2.97872340425532</v>
       </c>
     </row>
@@ -1045,8 +1091,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1056,15 +1102,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1081,7 +1127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1093,6 +1139,226 @@
       </c>
       <c r="D2" s="1" t="n">
         <v>1.34109539480512</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>

--- a/fungi/marine_fungi/marine_fungi_data.xlsx
+++ b/fungi/marine_fungi/marine_fungi_data.xlsx
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1333,10 +1333,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.95</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1344,10 +1344,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1355,10 +1355,10 @@
         <v>36</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>

--- a/fungi/marine_fungi/marine_fungi_data.xlsx
+++ b/fungi/marine_fungi/marine_fungi_data.xlsx
@@ -1,205 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Wang" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Gutiérrez" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Bacteria biomass" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Pernice" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Bochdansky" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wang" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gutiérrez" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bacteria biomass" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pernice" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bochdansky" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracted from Figure 2 in Wang et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth [m]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basidiomycota [ng µl^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascomycota [ng µl^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacteria [ng µl^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracted from Figure 4 in Gutiérrez et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prokaryote carbon concentration [µg C L^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fungi carbon concentration [µg C L^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of prokaryotes in epipelagic realm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unitless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from Table 1 in Pernice et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min depth [m]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max depth [m]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microbial eukaryotes biomass density [pg C mL^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prokaryote biomass density [pg C mL^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prokaryote SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from Table 1 in Bochdansky et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min biomass ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max biomass ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newell and Statzell-Tallman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menden-Deuer and Lessard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">van Veen and Paul</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Extracted from Figure 2 in Wang et al.</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Depth [m]</t>
+  </si>
+  <si>
+    <t>Basidiomycota [ng µl^-1]</t>
+  </si>
+  <si>
+    <t>Ascomycota [ng µl^-1]</t>
+  </si>
+  <si>
+    <t>Bacteria [ng µl^-1]</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Extracted from Figure 4 in Gutiérrez et al.</t>
+  </si>
+  <si>
+    <t>Sample Number</t>
+  </si>
+  <si>
+    <t>Prokaryote carbon concentration [µg C L^-1]</t>
+  </si>
+  <si>
+    <t>Fungi carbon concentration [µg C L^-1]</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>Fraction of prokaryotes in epipelagic realm</t>
+  </si>
+  <si>
+    <t>Unitless</t>
+  </si>
+  <si>
+    <t>Taken from Table 1 in Pernice et al.</t>
+  </si>
+  <si>
+    <t>Min depth [m]</t>
+  </si>
+  <si>
+    <t>Max depth [m]</t>
+  </si>
+  <si>
+    <t>Microbial eukaryotes biomass density [pg C mL^-1]</t>
+  </si>
+  <si>
+    <t>Protist SE</t>
+  </si>
+  <si>
+    <t>Prokaryote biomass density [pg C mL^-1]</t>
+  </si>
+  <si>
+    <t>Prokaryote SE</t>
+  </si>
+  <si>
+    <t>Taken from Table 1 in Bochdansky et al.</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Min biomass ratio</t>
+  </si>
+  <si>
+    <t>Max biomass ratio</t>
+  </si>
+  <si>
+    <t>Newell and Statzell-Tallman</t>
+  </si>
+  <si>
+    <t>Menden-Deuer and Lessard</t>
+  </si>
+  <si>
+    <t>van Veen and Paul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="1"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -207,1167 +203,1462 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.96428571428571"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="7.83163265306122"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="1" s="6" spans="1:5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="3" s="6" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="5" t="n">
         <v>0.151697656359867</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="5" t="n">
         <v>0.00382152230971129</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="5" t="n">
         <v>2.82674916997352</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="4" s="6" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="5" t="n">
         <v>0.103611150175177</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="5" t="n">
         <v>0.00352755905511811</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="5" t="n">
         <v>2.4771933793542</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="5" s="6" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.168610019015707</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.00134383202099738</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="5" t="n">
         <v>2.47628539459122</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="6" s="6" spans="1:5">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.177011170964054</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.00285564304461942</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.977642785954057</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="7" s="6" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="5" t="n">
         <v>0.251401720585268</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="5" t="n">
         <v>0.00134383202099738</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="5" t="n">
         <v>1.6172125784933</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="8" s="6" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="5" t="n">
         <v>0.391754153189564</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="5" t="n">
         <v>0.00226771653543307</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="5" t="n">
         <v>1.95528557190811</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="9" s="6" spans="1:5">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.0704559489816505</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.000167979002624673</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="5" t="n">
         <v>1.60581232535815</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="10" s="6" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="5" t="n">
         <v>0.40861148646583</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="5" t="n">
         <v>0.000125984251968503</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="5" t="n">
         <v>1.81204409687617</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="11" s="6" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.0497190444453963</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.000125984251968503</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="5" t="n">
         <v>1.7828234963222</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="12" s="6" spans="1:5">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.387792037860213</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>8.39895013123365E-005</v>
-      </c>
-      <c r="E12" s="1" t="n">
+      <c r="D12" s="5" t="n">
+        <v>8.39895013123365e-05</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>1.78186048217965</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="13" s="6" spans="1:5">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="5" t="n">
         <v>1.07445780775181</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="5" t="n">
         <v>0.00134383202099738</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="5" t="n">
         <v>4.62552201480902</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="14" s="6" spans="1:5">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="5" t="n">
         <v>0.244578077518053</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.000587926509186353</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="5" t="n">
         <v>3.55071568765324</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="15" s="6" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.309549431668797</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.00121784776902887</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="5" t="n">
         <v>3.00343933622339</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="16" s="6" spans="1:5">
+      <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="5" t="n">
         <v>0.374548300509328</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>0.000881889763779529</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="D16" s="5" t="n">
+        <v>0.0008818897637795289</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>2.85176919455331</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="17" s="6" spans="1:5">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="5" t="n">
         <v>0.109792783814026</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.000293963254593176</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="5" t="n">
         <v>1.63570245003027</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="18" s="6" spans="1:5">
+      <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="5" t="n">
         <v>2.58605066371546</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="5" t="n">
         <v>0.00121784776902887</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="5" t="n">
         <v>2.96281848253429</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="19" s="6" spans="1:5">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="5" t="n">
         <v>0.0419048725458433</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="5" t="n">
         <v>0.000167979002624673</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="5" t="n">
         <v>2.44382723220564</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="20" s="6" spans="1:5">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="5" t="n">
         <v>0.267057579074162</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="5" t="n">
         <v>0.000545931758530183</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="5" t="n">
         <v>2.85730881876379</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="21" s="6" spans="1:5">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="5" t="n">
         <v>0.0588172352016825</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="5" t="n">
         <v>0.000167979002624673</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="5" t="n">
         <v>2.38538603109771</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="22" s="6" spans="1:5">
+      <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>0.0672459018398159</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>8.39895013123365E-005</v>
-      </c>
-      <c r="E22" s="1" t="n">
+      <c r="C22" s="5" t="n">
+        <v>0.06724590183981589</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>8.39895013123365e-05</v>
+      </c>
+      <c r="E22" s="5" t="n">
         <v>1.11274908437227</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="23" s="6" spans="1:5">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="5" t="n">
         <v>0.264141021956724</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="5" t="n">
         <v>0.00239370078740157</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="E23" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="24" s="6" spans="1:5">
+      <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="5" t="n">
         <v>0.0370347724535165</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="5" t="n">
         <v>0.000125984251968503</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="5" t="n">
         <v>2.69322038043644</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="25" s="6" spans="1:5">
+      <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>0.0737485401928479</v>
-      </c>
-      <c r="D25" s="1" t="n">
+      <c r="C25" s="5" t="n">
+        <v>0.07374854019284791</v>
+      </c>
+      <c r="D25" s="5" t="n">
         <v>0.000839895013123359</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="5" t="n">
         <v>2.41918324171961</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="26" s="6" spans="1:5">
+      <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="5" t="n">
         <v>0.0445279396388863</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="5" t="n">
         <v>1.85301346996925</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="27" s="6" spans="1:5">
+      <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="5" t="n">
         <v>0.100080098319159</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="5" t="n">
         <v>0.000713910761154856</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="5" t="n">
         <v>1.67308574188775</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="28" s="6" spans="1:5">
+      <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="5" t="n">
         <v>0.541819271288728</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="5" t="n">
         <v>0.0136482939632546</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="5" t="n">
         <v>3.87618695314554</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="29" s="6" spans="1:5">
+      <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="5" t="n">
         <v>0.0887623892533735</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="5" t="n">
         <v>0.00390551181102362</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="5" t="n">
         <v>4.00712019027937</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="30" s="6" spans="1:5">
+      <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="5" t="n">
         <v>0.0500675638493666</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="5" t="n">
         <v>0.00121784776902887</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="5" t="n">
         <v>5.39066885153685</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="31" s="6" spans="1:5">
+      <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="5" t="n">
         <v>0.105592207839853</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="5" t="n">
         <v>0.00243569553805774</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="5" t="n">
         <v>4.21238894765483</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="32" s="6" spans="1:5">
+      <c r="A32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="5" t="n">
         <v>0.000419947506561679</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="5" t="n">
         <v>2.14856709609964</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F33" activeCellId="1" pane="topLeft" sqref="A2:D2 F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.8010204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="13.8" r="1" s="6" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="3" s="6" spans="1:3">
+      <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="5" t="n">
         <v>20.9574468085106</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="5" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="4" s="6" spans="1:3">
+      <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="5" t="n">
         <v>15.1063829787234</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="5" t="n">
         <v>2.34042553191489</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="5" s="6" spans="1:3">
+      <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="5" t="n">
         <v>22.8723404255319</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.319148936170212</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="6" s="6" spans="1:3">
+      <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="5" t="n">
         <v>18.7234042553192</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="7" s="6" spans="1:3">
+      <c r="A7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="5" t="n">
         <v>14.8936170212766</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="5" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="8" s="6" spans="1:3">
+      <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="5" t="n">
         <v>14.3617021276596</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="5" t="n">
         <v>0.21276595744681</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="9" s="6" spans="1:3">
+      <c r="A9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="5" t="n">
         <v>12.9787234042553</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="5" t="n">
         <v>3.82978723404255</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="10" s="6" spans="1:3">
+      <c r="A10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="5" t="n">
         <v>17.7659574468085</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="5" t="n">
         <v>14.6808510638298</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="11" s="6" spans="1:3">
+      <c r="A11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="5" t="n">
         <v>31.4893617021277</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="5" t="n">
         <v>19.468085106383</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="12" s="6" spans="1:3">
+      <c r="A12" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="5" t="n">
         <v>11.063829787234</v>
       </c>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="C12" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="13" s="6" spans="1:3">
+      <c r="A13" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="5" t="n">
         <v>44.0425531914894</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="5" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="14" s="6" spans="1:3">
+      <c r="A14" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="5" t="n">
         <v>10.1063829787234</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="5" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="15" s="6" spans="1:3">
+      <c r="A15" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="5" t="n">
         <v>12.0212765957447</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.957446808510642</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="16" s="6" spans="1:3">
+      <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="5" t="n">
         <v>22.1276595744681</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="5" t="n">
         <v>11.063829787234</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="17" s="6" spans="1:3">
+      <c r="A17" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="5" t="n">
         <v>10.8510638297872</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="5" t="n">
         <v>5.31914893617022</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="18" s="6" spans="1:3">
+      <c r="A18" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="5" t="n">
         <v>28.4042553191489</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="5" t="n">
         <v>40.2127659574468</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="19" s="6" spans="1:3">
+      <c r="A19" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="5" t="n">
         <v>14.6808510638298</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="5" t="n">
         <v>1.17021276595745</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="20" s="6" spans="1:3">
+      <c r="A20" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="5" t="n">
         <v>23.4042553191489</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="5" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="21" s="6" spans="1:3">
+      <c r="A21" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="5" t="n">
         <v>12.7659574468085</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="5" t="n">
         <v>0.744680851063832</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="22" s="6" spans="1:3">
+      <c r="A22" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="5" t="n">
         <v>12.7659574468085</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="5" t="n">
         <v>0.638297872340424</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row customHeight="1" ht="13.8" r="23" s="6" spans="1:3">
+      <c r="A23" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="5" t="n">
         <v>39.5744680851064</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="5" t="n">
         <v>2.97872340425532</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="6" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.305515500469569</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0.3055155004695688</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>1.34109539480512</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D2" t="n">
+        <v>1.343677346811815</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="3" s="6" spans="1:4"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C3" activeCellId="1" pane="topLeft" sqref="A2:D2 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="6" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
+      <c r="F1" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="3" s="6" spans="1:6">
+      <c r="A3" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="5" t="n">
         <v>450</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="5" t="n">
         <v>280</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="5" t="n">
         <v>837</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="5" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="4" s="6" spans="1:6">
+      <c r="A4" s="5" t="n">
         <v>451</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="5" t="n">
         <v>700</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="5" t="n">
         <v>661</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="5" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="5" s="6" spans="1:6">
+      <c r="A5" s="5" t="n">
         <v>701</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="5" t="n">
         <v>1400</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="5" t="n">
         <v>534</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="5" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="6" s="6" spans="1:6">
+      <c r="A6" s="5" t="n">
         <v>1401</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="5" t="n">
         <v>4000</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="5" t="n">
         <v>309</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="5" t="n">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B5" activeCellId="1" pane="topLeft" sqref="A2:D2 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="6" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row customHeight="1" ht="35.05" r="3" s="6" spans="1:3">
+      <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="5" t="n">
         <v>0.35</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="5" t="n">
         <v>1.42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row customHeight="1" ht="35.05" r="4" s="6" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="5" t="n">
         <v>0.44</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="5" t="n">
         <v>1.98</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row customHeight="1" ht="23.85" r="5" s="6" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.53</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.53</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/fungi/marine_fungi/marine_fungi_data.xlsx
+++ b/fungi/marine_fungi/marine_fungi_data.xlsx
@@ -171,7 +171,7 @@
     <font>
       <name val="Cambria"/>
       <charset val="1"/>
-      <family val="1"/>
+      <family val="0"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -544,12 +544,12 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="A2:D2"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="7.83163265306122"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="13.8" r="1" s="6" spans="1:5">
@@ -559,9 +559,6 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="6" spans="1:5">
       <c r="A2" s="7" t="s">
@@ -933,7 +930,6 @@
       <c r="D23" s="5" t="n">
         <v>0.00239370078740157</v>
       </c>
-      <c r="E23" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="24" s="6" spans="1:5">
       <c r="A24" s="5" t="s">
@@ -1101,12 +1097,12 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F33" activeCellId="1" pane="topLeft" sqref="A2:D2 F33"/>
+      <selection activeCell="F33" activeCellId="0" pane="topLeft" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.8010204081633"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="13.8" r="1" s="6" spans="1:3">
@@ -1116,7 +1112,6 @@
       <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="6" spans="1:3">
       <c r="A2" s="5" t="s">
@@ -1235,7 +1230,6 @@
       <c r="B12" s="5" t="n">
         <v>11.063829787234</v>
       </c>
-      <c r="C12" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="13" s="6" spans="1:3">
       <c r="A13" s="5" t="n">
@@ -1382,12 +1376,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2:D2"/>
+      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.6632653061225"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="6" spans="1:4">
@@ -1404,7 +1398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1409,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.343677346811815</v>
+        <v>1.341533129897557</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="3" s="6" spans="1:4"/>
@@ -1443,12 +1437,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C3" activeCellId="1" pane="topLeft" sqref="A2:D2 C3"/>
+      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="11.0714285714286"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="6" spans="1:6">
@@ -1458,10 +1452,6 @@
       <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="6" spans="1:6">
       <c r="A2" s="5" t="s">
@@ -1587,12 +1577,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B5" activeCellId="1" pane="topLeft" sqref="A2:D2 B5"/>
+      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="11.0714285714286"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="6" spans="1:3">
@@ -1602,7 +1592,6 @@
       <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="6" spans="1:3">
       <c r="A2" s="5" t="s">

--- a/fungi/marine_fungi/marine_fungi_data.xlsx
+++ b/fungi/marine_fungi/marine_fungi_data.xlsx
@@ -171,7 +171,7 @@
     <font>
       <name val="Cambria"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="1"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -549,7 +549,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="7.69387755102041"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="13.8" r="1" s="6" spans="1:5">
@@ -559,6 +559,9 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="6" spans="1:5">
       <c r="A2" s="7" t="s">
@@ -930,6 +933,7 @@
       <c r="D23" s="5" t="n">
         <v>0.00239370078740157</v>
       </c>
+      <c r="E23" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="24" s="6" spans="1:5">
       <c r="A24" s="5" t="s">
@@ -1102,7 +1106,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.6632653061225"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="13.8" r="1" s="6" spans="1:3">
@@ -1112,6 +1116,7 @@
       <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C1" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="6" spans="1:3">
       <c r="A2" s="5" t="s">
@@ -1230,6 +1235,7 @@
       <c r="B12" s="5" t="n">
         <v>11.063829787234</v>
       </c>
+      <c r="C12" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="13" s="6" spans="1:3">
       <c r="A13" s="5" t="n">
@@ -1381,7 +1387,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.530612244898"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="6" spans="1:4">
@@ -1409,7 +1415,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.341533129897557</v>
+        <v>1.338782173808217</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="3" s="6" spans="1:4"/>
@@ -1442,7 +1448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.8010204081633"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="6" spans="1:6">
@@ -1452,6 +1458,10 @@
       <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
+      <c r="F1" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="6" spans="1:6">
       <c r="A2" s="5" t="s">
@@ -1582,7 +1592,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.8010204081633"/>
+    <col customWidth="1" max="1025" min="1" style="5" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="6" spans="1:3">
@@ -1592,6 +1602,7 @@
       <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="C1" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="6" spans="1:3">
       <c r="A2" s="5" t="s">

--- a/fungi/marine_fungi/marine_fungi_data.xlsx
+++ b/fungi/marine_fungi/marine_fungi_data.xlsx
@@ -1415,7 +1415,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.338782173808217</v>
+        <v>1.340830112337973</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="3" s="6" spans="1:4"/>

--- a/fungi/marine_fungi/marine_fungi_data.xlsx
+++ b/fungi/marine_fungi/marine_fungi_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wang" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bochdansky" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -136,7 +136,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="General" numFmtId="164"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <name val="Calibri"/>
@@ -171,7 +173,7 @@
     <font>
       <name val="Cambria"/>
       <charset val="1"/>
-      <family val="1"/>
+      <family val="0"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -211,34 +213,25 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -543,552 +536,548 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="7.56122448979592"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="7.56"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="6" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="1" s="5" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:5">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="5" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="6" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="3" s="5" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.151697656359867</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.00382152230971129</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="1" t="n">
         <v>2.82674916997352</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="6" spans="1:5">
-      <c r="A4" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="4" s="5" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.103611150175177</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.00352755905511811</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="1" t="n">
         <v>2.4771933793542</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="6" spans="1:5">
-      <c r="A5" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="5" s="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.168610019015707</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.00134383202099738</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="1" t="n">
         <v>2.47628539459122</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="6" s="5" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.177011170964054</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.00285564304461942</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.977642785954057</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="6" spans="1:5">
-      <c r="A7" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="7" s="5" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.251401720585268</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.00134383202099738</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="1" t="n">
         <v>1.6172125784933</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="6" spans="1:5">
-      <c r="A8" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="8" s="5" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.391754153189564</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.00226771653543307</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="1" t="n">
         <v>1.95528557190811</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="6" spans="1:5">
-      <c r="A9" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="9" s="5" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.0704559489816505</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.000167979002624673</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="1" t="n">
         <v>1.60581232535815</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="6" spans="1:5">
-      <c r="A10" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="10" s="5" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.40861148646583</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.000125984251968503</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="1" t="n">
         <v>1.81204409687617</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="6" spans="1:5">
-      <c r="A11" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="11" s="5" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.0497190444453963</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.000125984251968503</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="1" t="n">
         <v>1.7828234963222</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="6" spans="1:5">
-      <c r="A12" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="12" s="5" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.387792037860213</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="1" t="n">
         <v>8.39895013123365e-05</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="1" t="n">
         <v>1.78186048217965</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="6" spans="1:5">
-      <c r="A13" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="13" s="5" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="1" t="n">
         <v>1.07445780775181</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.00134383202099738</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="1" t="n">
         <v>4.62552201480902</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="6" spans="1:5">
-      <c r="A14" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="14" s="5" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.244578077518053</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="1" t="n">
         <v>0.000587926509186353</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="1" t="n">
         <v>3.55071568765324</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="6" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="15" s="5" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.309549431668797</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.00121784776902887</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="1" t="n">
         <v>3.00343933622339</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="6" spans="1:5">
-      <c r="A16" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="16" s="5" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.374548300509328</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.0008818897637795289</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="1" t="n">
         <v>2.85176919455331</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="6" spans="1:5">
-      <c r="A17" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="17" s="5" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.109792783814026</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.000293963254593176</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="1" t="n">
         <v>1.63570245003027</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="6" spans="1:5">
-      <c r="A18" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="18" s="5" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="1" t="n">
         <v>2.58605066371546</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="1" t="n">
         <v>0.00121784776902887</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="1" t="n">
         <v>2.96281848253429</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="6" spans="1:5">
-      <c r="A19" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="19" s="5" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.0419048725458433</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.000167979002624673</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="1" t="n">
         <v>2.44382723220564</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="6" spans="1:5">
-      <c r="A20" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="20" s="5" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="1" t="n">
         <v>0.267057579074162</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="1" t="n">
         <v>0.000545931758530183</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="1" t="n">
         <v>2.85730881876379</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="6" spans="1:5">
-      <c r="A21" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="21" s="5" spans="1:5">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.0588172352016825</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="1" t="n">
         <v>0.000167979002624673</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="1" t="n">
         <v>2.38538603109771</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="6" spans="1:5">
-      <c r="A22" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="22" s="5" spans="1:5">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.06724590183981589</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="1" t="n">
         <v>8.39895013123365e-05</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="1" t="n">
         <v>1.11274908437227</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="6" spans="1:5">
-      <c r="A23" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="23" s="5" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="1" t="n">
         <v>0.264141021956724</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="1" t="n">
         <v>0.00239370078740157</v>
       </c>
-      <c r="E23" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="24" s="6" spans="1:5">
-      <c r="A24" s="5" t="s">
+    </row>
+    <row customHeight="1" ht="13.8" r="24" s="5" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="1" t="n">
         <v>0.0370347724535165</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="1" t="n">
         <v>0.000125984251968503</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="1" t="n">
         <v>2.69322038043644</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="6" spans="1:5">
-      <c r="A25" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="25" s="5" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="1" t="n">
         <v>0.07374854019284791</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="1" t="n">
         <v>0.000839895013123359</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="1" t="n">
         <v>2.41918324171961</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="6" spans="1:5">
-      <c r="A26" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="26" s="5" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="1" t="n">
         <v>0.0445279396388863</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="1" t="n">
         <v>1.85301346996925</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="6" spans="1:5">
-      <c r="A27" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="27" s="5" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="1" t="n">
         <v>0.100080098319159</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="1" t="n">
         <v>0.000713910761154856</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="1" t="n">
         <v>1.67308574188775</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="6" spans="1:5">
-      <c r="A28" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="28" s="5" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="1" t="n">
         <v>0.541819271288728</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="1" t="n">
         <v>0.0136482939632546</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="1" t="n">
         <v>3.87618695314554</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="6" spans="1:5">
-      <c r="A29" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="29" s="5" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="1" t="n">
         <v>0.0887623892533735</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="1" t="n">
         <v>0.00390551181102362</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="1" t="n">
         <v>4.00712019027937</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="6" spans="1:5">
-      <c r="A30" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="30" s="5" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="1" t="n">
         <v>0.0500675638493666</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="1" t="n">
         <v>0.00121784776902887</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="1" t="n">
         <v>5.39066885153685</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="6" spans="1:5">
-      <c r="A31" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="31" s="5" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="1" t="n">
         <v>0.105592207839853</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="1" t="n">
         <v>0.00243569553805774</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="1" t="n">
         <v>4.21238894765483</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="6" spans="1:5">
-      <c r="A32" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="32" s="5" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="1" t="n">
         <v>0.000419947506561679</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="1" t="n">
         <v>2.14856709609964</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1100,268 +1089,266 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="F33" activeCellId="0" pane="topLeft" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.530612244898"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="10.53"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="6" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="13.8" r="1" s="5" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:3">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="5" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="6" spans="1:3">
-      <c r="A3" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="3" s="5" spans="1:3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="1" t="n">
         <v>20.9574468085106</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="6" spans="1:3">
-      <c r="A4" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="4" s="5" spans="1:3">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="1" t="n">
         <v>15.1063829787234</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="1" t="n">
         <v>2.34042553191489</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="6" spans="1:3">
-      <c r="A5" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="5" s="5" spans="1:3">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="1" t="n">
         <v>22.8723404255319</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.319148936170212</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="6" spans="1:3">
-      <c r="A6" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="6" s="5" spans="1:3">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="1" t="n">
         <v>18.7234042553192</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="6" spans="1:3">
-      <c r="A7" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="7" s="5" spans="1:3">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="1" t="n">
         <v>14.8936170212766</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="6" spans="1:3">
-      <c r="A8" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="8" s="5" spans="1:3">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="1" t="n">
         <v>14.3617021276596</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.21276595744681</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="6" spans="1:3">
-      <c r="A9" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="9" s="5" spans="1:3">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="1" t="n">
         <v>12.9787234042553</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="1" t="n">
         <v>3.82978723404255</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="6" spans="1:3">
-      <c r="A10" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="10" s="5" spans="1:3">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="1" t="n">
         <v>17.7659574468085</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="1" t="n">
         <v>14.6808510638298</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="6" spans="1:3">
-      <c r="A11" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="11" s="5" spans="1:3">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="1" t="n">
         <v>31.4893617021277</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="1" t="n">
         <v>19.468085106383</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="6" spans="1:3">
-      <c r="A12" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="12" s="5" spans="1:3">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="1" t="n">
         <v>11.063829787234</v>
       </c>
-      <c r="C12" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="13" s="6" spans="1:3">
-      <c r="A13" s="5" t="n">
+    </row>
+    <row customHeight="1" ht="13.8" r="13" s="5" spans="1:3">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="1" t="n">
         <v>44.0425531914894</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="6" spans="1:3">
-      <c r="A14" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="14" s="5" spans="1:3">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="1" t="n">
         <v>10.1063829787234</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="6" spans="1:3">
-      <c r="A15" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="15" s="5" spans="1:3">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="1" t="n">
         <v>12.0212765957447</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.957446808510642</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="6" spans="1:3">
-      <c r="A16" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="16" s="5" spans="1:3">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="1" t="n">
         <v>22.1276595744681</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="1" t="n">
         <v>11.063829787234</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="6" spans="1:3">
-      <c r="A17" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="17" s="5" spans="1:3">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="1" t="n">
         <v>10.8510638297872</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="1" t="n">
         <v>5.31914893617022</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="6" spans="1:3">
-      <c r="A18" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="18" s="5" spans="1:3">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="1" t="n">
         <v>28.4042553191489</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="1" t="n">
         <v>40.2127659574468</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="6" spans="1:3">
-      <c r="A19" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="19" s="5" spans="1:3">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="1" t="n">
         <v>14.6808510638298</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="1" t="n">
         <v>1.17021276595745</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="6" spans="1:3">
-      <c r="A20" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="20" s="5" spans="1:3">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="1" t="n">
         <v>23.4042553191489</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="1" t="n">
         <v>0.42553191489362</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="6" spans="1:3">
-      <c r="A21" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="21" s="5" spans="1:3">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="1" t="n">
         <v>12.7659574468085</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.744680851063832</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="6" spans="1:3">
-      <c r="A22" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="22" s="5" spans="1:3">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="1" t="n">
         <v>12.7659574468085</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.638297872340424</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="6" spans="1:3">
-      <c r="A23" s="5" t="n">
+    <row customHeight="1" ht="13.8" r="23" s="5" spans="1:3">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="1" t="n">
         <v>39.5744680851064</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="1" t="n">
         <v>2.97872340425532</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1381,30 +1368,30 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.3928571428571"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="10.39"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="6" spans="1:4">
-      <c r="A1" s="8" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="5" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:4">
+    <row customHeight="1" ht="13.8" r="2" s="5" spans="1:4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1415,14 +1402,14 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.340830112337973</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="3" s="6" spans="1:4"/>
+        <v>1.340845356009167</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="3" s="5" spans="1:4"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1442,131 +1429,127 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.6632653061225"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="10.66"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="6" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="5" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:6">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="5" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="6" spans="1:6">
-      <c r="A3" s="5" t="n">
+    <row customHeight="1" ht="12.8" r="3" s="5" spans="1:6">
+      <c r="A3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="1" t="n">
         <v>837</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="1" t="n">
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="6" spans="1:6">
-      <c r="A4" s="5" t="n">
+    <row customHeight="1" ht="12.8" r="4" s="5" spans="1:6">
+      <c r="A4" s="1" t="n">
         <v>451</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="1" t="n">
         <v>661</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="1" t="n">
         <v>160</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="6" spans="1:6">
-      <c r="A5" s="5" t="n">
+    <row customHeight="1" ht="12.8" r="5" s="5" spans="1:6">
+      <c r="A5" s="1" t="n">
         <v>701</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="1" t="n">
         <v>1400</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="1" t="n">
         <v>534</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="1" t="n">
         <v>106</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="6" spans="1:6">
-      <c r="A6" s="5" t="n">
+    <row customHeight="1" ht="12.8" r="6" s="5" spans="1:6">
+      <c r="A6" s="1" t="n">
         <v>1401</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="1" t="n">
         <v>4000</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="1" t="n">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1586,72 +1569,71 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="5" width="10.6632653061225"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="10.66"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="6" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="5" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="6" spans="1:3">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="5" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row customHeight="1" ht="35.05" r="3" s="6" spans="1:3">
-      <c r="A3" s="9" t="s">
+    <row customHeight="1" ht="35.05" r="3" s="5" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.42</v>
       </c>
     </row>
-    <row customHeight="1" ht="35.05" r="4" s="6" spans="1:3">
-      <c r="A4" s="9" t="s">
+    <row customHeight="1" ht="35.05" r="4" s="5" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="1" t="n">
         <v>1.98</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.85" r="5" s="6" spans="1:3">
-      <c r="A5" s="9" t="s">
+    <row customHeight="1" ht="23.85" r="5" s="5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.53</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.53</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
